--- a/data/trans_dic/P20B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Provincia-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0833101925747054</v>
+        <v>0.08304138084003462</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3077111090051628</v>
+        <v>0.3029896499989418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1294392517610725</v>
+        <v>0.1390685579765214</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.1452688685229291</v>
+        <v>0.1482275500432996</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07869331123041377</v>
+        <v>0.07588128917023118</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0613862107535434</v>
+        <v>0.04705011602134401</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03606955155033623</v>
+        <v>0.03564987325195841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2597798700759298</v>
+        <v>0.2635407888463471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1234167761961725</v>
+        <v>0.1179351573645139</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06968636510855669</v>
+        <v>0.07059432598671123</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6364457560449971</v>
+        <v>0.6239591694496083</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7086595539279055</v>
+        <v>0.7235557274970114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6324693008837736</v>
+        <v>0.6135129985558124</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5162370209020266</v>
+        <v>0.4769864710405117</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.462391752421924</v>
+        <v>0.4489238013758156</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.343009364778233</v>
+        <v>0.3294299930298766</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2617444915647552</v>
+        <v>0.2786912292871094</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.321047789113693</v>
+        <v>0.2962678385669296</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5048046474959118</v>
+        <v>0.5019718682804866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3595683712398033</v>
+        <v>0.3535119310216923</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2787381190344901</v>
+        <v>0.2880145032477919</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.2709441111887395</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3561899774346423</v>
+        <v>0.3561899774346424</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07492603213498278</v>
+        <v>0.075972128539339</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1463335909219215</v>
+        <v>0.1422958300275773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1088674603182549</v>
+        <v>0.1118190394044155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2476027954650788</v>
+        <v>0.2445181334475411</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1007615414025166</v>
+        <v>0.08748086870265569</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1419801005224132</v>
+        <v>0.1465490028868239</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1156421866569444</v>
+        <v>0.1101126727157457</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.142106433434932</v>
+        <v>0.1333268374469411</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1092174379568513</v>
+        <v>0.1139149248447249</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1764010515573698</v>
+        <v>0.1696038077754992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1518200998407917</v>
+        <v>0.1593719926731539</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2363933329241303</v>
+        <v>0.2474812624638276</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.406391609605375</v>
+        <v>0.4029782530960207</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4283456425585081</v>
+        <v>0.4556412118410838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5316290098607563</v>
+        <v>0.5324868757443706</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5862914441541268</v>
+        <v>0.5857921433306218</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3210776372843099</v>
+        <v>0.3326808562679632</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.380398717232242</v>
+        <v>0.3929763992827671</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4139203916344974</v>
+        <v>0.4266743257486522</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4502893386877907</v>
+        <v>0.4595116410824455</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2996510734178175</v>
+        <v>0.3030737345298167</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3602250494955223</v>
+        <v>0.3534859713411617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4219609198816096</v>
+        <v>0.4225664703237358</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4930197352232767</v>
+        <v>0.4864010607591365</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.287979442332186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4025681804670992</v>
+        <v>0.4025681804670993</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1209194132991887</v>
@@ -979,37 +979,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07960859793393399</v>
+        <v>0.08236788455607677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08627496827267586</v>
+        <v>0.08598011756931168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.245161085047275</v>
+        <v>0.242764093962469</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1220848592078242</v>
+        <v>0.1435731861744812</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09548330156791104</v>
+        <v>0.09455623676202446</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1137778359677403</v>
+        <v>0.1169663316616944</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03694593897269777</v>
+        <v>0.03765478908289097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1543084069448883</v>
+        <v>0.1490375754940002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1155300959950233</v>
+        <v>0.120294275450223</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2049915577786177</v>
+        <v>0.205226005283782</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6614359567793916</v>
+        <v>0.6507116477897973</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4055827523029961</v>
+        <v>0.4282939604917818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6810962647665437</v>
+        <v>0.5985440558994735</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5729624834558594</v>
+        <v>0.582870795006359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3833063336184193</v>
+        <v>0.4007034206614237</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4339859167144896</v>
+        <v>0.4560434251589291</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4019801810261706</v>
+        <v>0.4185013114091632</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3425451439585832</v>
+        <v>0.3412430732338064</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3264674637168852</v>
+        <v>0.3367515959390917</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3773233225002662</v>
+        <v>0.3690894528333825</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3610068631210994</v>
+        <v>0.3795613556219826</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.401731580828212</v>
+        <v>0.4017445371221147</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.3485722010977175</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2999816076274224</v>
+        <v>0.2999816076274225</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2870384533678937</v>
@@ -1115,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09180741110664577</v>
+        <v>0.09190857932137361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1390130048157945</v>
+        <v>0.1516872424148341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1683636842482275</v>
+        <v>0.2028050592273857</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1493288984021901</v>
+        <v>0.1807757107544189</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0889631429504478</v>
+        <v>0.08720354773936825</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1797987654537439</v>
+        <v>0.1722235713502349</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1519744764941642</v>
+        <v>0.1567834578446518</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.133568644443821</v>
+        <v>0.1424529446616613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1204312711923067</v>
+        <v>0.1197065984816899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2062346077331674</v>
+        <v>0.2094783807123906</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2079980712100095</v>
+        <v>0.2098738501165521</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.637463353021506</v>
+        <v>0.5227573100298678</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4759243771165477</v>
+        <v>0.4832049608386223</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4893431725826531</v>
+        <v>0.4878616513609837</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6087855561605806</v>
+        <v>0.6243031820632271</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5741908437062413</v>
+        <v>0.5652182023830548</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3838390825527274</v>
+        <v>0.3619657224416701</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5357668345995235</v>
+        <v>0.5337597028027137</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5214431226943369</v>
+        <v>0.5115245821527274</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4811032769908312</v>
+        <v>0.5008416794311868</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.335882383089222</v>
+        <v>0.3390809645078676</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4676266519222033</v>
+        <v>0.4653333876004282</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4789993697336992</v>
+        <v>0.4947045226970491</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.4321707188151862</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2696008504137269</v>
+        <v>0.2696008504137268</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06438343364768974</v>
+        <v>0.0615611762348605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2958328420190594</v>
+        <v>0.2837357153029123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2226208188657691</v>
+        <v>0.2167861892353303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1511704055806217</v>
+        <v>0.1592035753787729</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09835345305058665</v>
+        <v>0.09652999010786281</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08331203298499001</v>
+        <v>0.07926275164159456</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04157196377408397</v>
+        <v>0.03955621251010856</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02871851956272066</v>
+        <v>0.02946215015405342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.226898014778594</v>
+        <v>0.2157984364652491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2324947266856389</v>
+        <v>0.2276934693228718</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1226433170826968</v>
+        <v>0.1299554079647618</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5017726671240028</v>
+        <v>0.4621084118385235</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8370024872202276</v>
+        <v>0.8347361985435571</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8868525749905611</v>
+        <v>0.8852739080313938</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8883286569447094</v>
+        <v>0.7968554357415544</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2215513318072225</v>
+        <v>0.2344437111313108</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5014923576380783</v>
+        <v>0.5142602112667091</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6720350802494328</v>
+        <v>0.6513437677287077</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3848492978533645</v>
+        <v>0.3352655906990732</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2672422913728826</v>
+        <v>0.2672553250340592</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5546299268315857</v>
+        <v>0.5516933318705227</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6716998110818291</v>
+        <v>0.6686641623077384</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4854437357431951</v>
+        <v>0.4524376705666641</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.3015963649074858</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1485625599791873</v>
+        <v>0.1485625599791874</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2332240083901994</v>
@@ -1373,7 +1373,7 @@
         <v>0.321366873825548</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2022242517633839</v>
+        <v>0.202224251763384</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08619806668503474</v>
+        <v>0.1587372474477056</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.134526986432984</v>
+        <v>0.07414252116325447</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1592233034034629</v>
+        <v>0.1561703120575258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1330117553283569</v>
+        <v>0.1392887790423058</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06812067041534539</v>
+        <v>0.09070446608797174</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03810102982619955</v>
+        <v>0.03955011649158421</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1240027809942495</v>
+        <v>0.1345977139642158</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05953893870074885</v>
+        <v>0.05534757847038525</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1181325829971645</v>
+        <v>0.1146846957396942</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1209704122918335</v>
+        <v>0.1024616630288683</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1824328483707322</v>
+        <v>0.1800876624453751</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1295495237521112</v>
+        <v>0.1299387671865122</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6292974284168933</v>
+        <v>0.6275075047806855</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6499090731522522</v>
+        <v>0.6463604167563407</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6051548320719691</v>
+        <v>0.6000771612070901</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4040031511634033</v>
+        <v>0.4100276295311309</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3733167329227722</v>
+        <v>0.3708560970522115</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3188764629519004</v>
+        <v>0.3424080385893807</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4953262504726476</v>
+        <v>0.5182198332729484</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3040820085001101</v>
+        <v>0.2838278456452775</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.377907479077734</v>
+        <v>0.3712735399942982</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4176096445264833</v>
+        <v>0.3851667452478909</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4834314849556664</v>
+        <v>0.4829436754720877</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2983344091014111</v>
+        <v>0.309345495127722</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.3392571283455302</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2461808090090558</v>
+        <v>0.2461808090090557</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3024648937731955</v>
@@ -1497,7 +1497,7 @@
         <v>0.2490150110835211</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3130376286832852</v>
+        <v>0.3130376286832853</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3282084098768234</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2197272612594069</v>
+        <v>0.2143550611170456</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1434104434947786</v>
+        <v>0.143972861392487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1671253820896407</v>
+        <v>0.1576821423779793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.122633861912732</v>
+        <v>0.1247545220659859</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1946381316954117</v>
+        <v>0.1929395777453664</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1457742557396221</v>
+        <v>0.1623019298729499</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1313419815123405</v>
+        <v>0.1343693900446853</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2220933125347246</v>
+        <v>0.2213044652213325</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2396464233158679</v>
+        <v>0.2367060299974273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.178096417424451</v>
+        <v>0.1766257894971737</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1803338874235178</v>
+        <v>0.1822764049265577</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2107140188267014</v>
+        <v>0.2102449847366615</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5442468805617994</v>
+        <v>0.5467005885750571</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.515699495788124</v>
+        <v>0.5243646695648602</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5966688258403594</v>
+        <v>0.5844919013402503</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3835962315708376</v>
+        <v>0.4023242864518969</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4278029092927914</v>
+        <v>0.4473911642353449</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.375869649304618</v>
+        <v>0.3960966415094374</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3897417822115855</v>
+        <v>0.4025927376545098</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4106314518278243</v>
+        <v>0.4163589518294396</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4245829928651804</v>
+        <v>0.4370206131603344</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3776565581501312</v>
+        <v>0.378961309304832</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4062567496524298</v>
+        <v>0.4036816053646275</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3682448725478105</v>
+        <v>0.3858383907531923</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1232706881360133</v>
+        <v>0.1194228750821181</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06081413558766949</v>
+        <v>0.06088328036652219</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.19276360020814</v>
+        <v>0.1912238461222409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1873367691173253</v>
+        <v>0.187932557623098</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09618769051522653</v>
+        <v>0.08617074041141932</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1572988333984845</v>
+        <v>0.1491106716405523</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08965278834196559</v>
+        <v>0.09200534387094932</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07682653281000643</v>
+        <v>0.06638471243393491</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1287060306179778</v>
+        <v>0.1266915526004841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1361733199000525</v>
+        <v>0.1484866414891637</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1598618226683344</v>
+        <v>0.1553061473002248</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1444993423993464</v>
+        <v>0.1444458995236345</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4511245477048687</v>
+        <v>0.4440964293805971</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3201220032316759</v>
+        <v>0.3320859767397963</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5323737331063838</v>
+        <v>0.4913310593027559</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5164690810336228</v>
+        <v>0.5155397869944859</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3227392609897775</v>
+        <v>0.3093540469711382</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3887477064806383</v>
+        <v>0.3798164770204204</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3283879910348281</v>
+        <v>0.3278717169938467</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2997767844323475</v>
+        <v>0.2861483086207294</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3028677040777558</v>
+        <v>0.3181686738503881</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3135242450852686</v>
+        <v>0.3283761931829888</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3426117508898392</v>
+        <v>0.3502077328249176</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3392409476259787</v>
+        <v>0.3327670133974307</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2694853046682004</v>
+        <v>0.264145318387112</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1896955173478476</v>
+        <v>0.1892052638867351</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2339195691244831</v>
+        <v>0.2435774812265698</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4047079870962601</v>
+        <v>0.4009326934426656</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2895034083466314</v>
+        <v>0.2903638613774026</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3172102975135616</v>
+        <v>0.3252938182688117</v>
       </c>
     </row>
     <row r="31">
@@ -2144,38 +2144,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7540</v>
+        <v>7424</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2025</v>
+        <v>2175</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>5365</v>
+        <v>5474</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2645</v>
+        <v>2551</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1363</v>
+        <v>1045</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15960</v>
+        <v>16191</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6079</v>
+        <v>5809</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2361</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="7">
@@ -2186,38 +2186,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6414</v>
+        <v>6288</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17365</v>
+        <v>17730</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9892</v>
+        <v>9596</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6026</v>
+        <v>5568</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>17077</v>
+        <v>16580</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11530</v>
+        <v>11073</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5813</v>
+        <v>6189</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7276</v>
+        <v>6714</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>31014</v>
+        <v>30840</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17710</v>
+        <v>17412</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>9444</v>
+        <v>9759</v>
       </c>
     </row>
     <row r="8">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1934</v>
+        <v>1961</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6178</v>
+        <v>6007</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2285</v>
+        <v>2347</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10137</v>
+        <v>10011</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4764</v>
+        <v>4136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8456</v>
+        <v>8728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4171</v>
+        <v>3971</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3467</v>
+        <v>3253</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7983</v>
+        <v>8326</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17953</v>
+        <v>17261</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8663</v>
+        <v>9094</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15445</v>
+        <v>16169</v>
       </c>
     </row>
     <row r="11">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10491</v>
+        <v>10403</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18083</v>
+        <v>19235</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11159</v>
+        <v>11177</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24003</v>
+        <v>23982</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15179</v>
+        <v>15727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22656</v>
+        <v>23405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14929</v>
+        <v>15389</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10985</v>
+        <v>11210</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21902</v>
+        <v>22152</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>36662</v>
+        <v>35976</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>24077</v>
+        <v>24111</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32211</v>
+        <v>31779</v>
       </c>
     </row>
     <row r="12">
@@ -2503,37 +2503,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1946</v>
+        <v>2013</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6520</v>
+        <v>6456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4147</v>
+        <v>4877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3101</v>
+        <v>3071</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3785</v>
+        <v>3891</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9014</v>
+        <v>8706</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4799</v>
+        <v>4997</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12270</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="15">
@@ -2544,40 +2544,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4878</v>
+        <v>4799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9914</v>
+        <v>10469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6175</v>
+        <v>5427</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15237</v>
+        <v>15501</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6257</v>
+        <v>6541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14742</v>
+        <v>15491</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13054</v>
+        <v>13591</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11394</v>
+        <v>11351</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7737</v>
+        <v>7981</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22041</v>
+        <v>21560</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14997</v>
+        <v>15768</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24046</v>
+        <v>24047</v>
       </c>
     </row>
     <row r="16">
@@ -2683,37 +2683,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3900</v>
+        <v>4256</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4656</v>
+        <v>5608</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2779</v>
+        <v>3364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3246</v>
+        <v>3182</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5734</v>
+        <v>5492</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5807</v>
+        <v>5991</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3473</v>
+        <v>3704</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6821</v>
+        <v>6780</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>12363</v>
+        <v>12558</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13700</v>
+        <v>13823</v>
       </c>
     </row>
     <row r="19">
@@ -2724,40 +2724,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4714</v>
+        <v>3866</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9591</v>
+        <v>9738</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13730</v>
+        <v>13688</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16835</v>
+        <v>17264</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10685</v>
+        <v>10518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14006</v>
+        <v>13208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17086</v>
+        <v>17022</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19925</v>
+        <v>19546</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12510</v>
+        <v>13023</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19025</v>
+        <v>19206</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28033</v>
+        <v>27895</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31549</v>
+        <v>32584</v>
       </c>
     </row>
     <row r="20">
@@ -2860,40 +2860,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>840</v>
+        <v>804</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3910</v>
+        <v>3750</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1929</v>
+        <v>1879</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2104</v>
+        <v>2065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>937</v>
+        <v>891</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>7852</v>
+        <v>7468</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4629</v>
+        <v>4533</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1657</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="23">
@@ -2904,40 +2904,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6550</v>
+        <v>6032</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11062</v>
+        <v>11032</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7686</v>
+        <v>7673</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4027</v>
+        <v>3612</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4174</v>
+        <v>4417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10727</v>
+        <v>11000</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7554</v>
+        <v>7322</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3456</v>
+        <v>3011</v>
       </c>
       <c r="K23" s="6" t="n">
         <v>8524</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19194</v>
+        <v>19092</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13372</v>
+        <v>13312</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6560</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>902</v>
+        <v>1661</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2070</v>
+        <v>1141</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2895</v>
+        <v>2839</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3227</v>
+        <v>3379</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2083</v>
+        <v>2773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1019</v>
+        <v>1058</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3289</v>
+        <v>3570</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1328</v>
+        <v>1234</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4848</v>
+        <v>4706</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>5098</v>
+        <v>4318</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8155</v>
+        <v>8050</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6032</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6586</v>
+        <v>6567</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9999</v>
+        <v>9944</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11003</v>
+        <v>10911</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9802</v>
+        <v>9948</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11413</v>
+        <v>11338</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8532</v>
+        <v>9161</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13136</v>
+        <v>13743</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6782</v>
+        <v>6330</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15509</v>
+        <v>15236</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>17598</v>
+        <v>16231</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>21611</v>
+        <v>21589</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13891</v>
+        <v>14404</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7490</v>
+        <v>7307</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4410</v>
+        <v>4427</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4372</v>
+        <v>4125</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5325</v>
+        <v>5417</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10446</v>
+        <v>10355</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8553</v>
+        <v>9523</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6329</v>
+        <v>6475</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>14172</v>
+        <v>14122</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>21030</v>
+        <v>20772</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>15926</v>
+        <v>15794</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>13408</v>
+        <v>13552</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>22596</v>
+        <v>22546</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18552</v>
+        <v>18636</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15857</v>
+        <v>16124</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15609</v>
+        <v>15290</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>16657</v>
+        <v>17470</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22959</v>
+        <v>24011</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>22053</v>
+        <v>23240</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>18782</v>
+        <v>19401</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>26204</v>
+        <v>26569</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>37260</v>
+        <v>38351</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>33770</v>
+        <v>33887</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>30205</v>
+        <v>30014</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>39489</v>
+        <v>41375</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3169</v>
+        <v>3070</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6884</v>
+        <v>6829</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>4890</v>
+        <v>4905</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4857</v>
+        <v>4351</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>9559</v>
+        <v>9061</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4441</v>
+        <v>4557</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2481</v>
+        <v>2144</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>9808</v>
+        <v>9655</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>13327</v>
+        <v>14532</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>13627</v>
+        <v>13239</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>8438</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11599</v>
+        <v>11418</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11876</v>
+        <v>12320</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>19012</v>
+        <v>17546</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13480</v>
+        <v>13456</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16296</v>
+        <v>15621</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>23624</v>
+        <v>23081</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>16266</v>
+        <v>16240</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>9681</v>
+        <v>9241</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>23080</v>
+        <v>24246</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>30684</v>
+        <v>32137</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>29206</v>
+        <v>29853</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>19810</v>
+        <v>19432</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>55292</v>
+        <v>54197</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>46564</v>
+        <v>46444</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>105415</v>
+        <v>109767</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>83037</v>
+        <v>82263</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>71064</v>
+        <v>71275</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>142949</v>
+        <v>146592</v>
       </c>
     </row>
     <row r="40">
